--- a/eureca_dhcs/test/input_tests/conditions_hydro_test_stability.xlsx
+++ b/eureca_dhcs/test/input_tests/conditions_hydro_test_stability.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30888863-243A-42B7-B22A-DC3A11706140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007A1CA6-C9D6-465A-8AC4-7035D6213747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26208" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27144" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydraulic" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Node</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Pressure [Pa]</t>
   </si>
 </sst>
 </file>
@@ -6083,15 +6086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>649604</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>86676</xdr:rowOff>
+      <xdr:colOff>565784</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>363854</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>20954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6382,20 +6385,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8763"/>
+  <dimension ref="A1:K8763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="H4" sqref="H4:H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6418,12 +6422,15 @@
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6446,12 +6453,15 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6473,11 +6483,14 @@
       <c r="G3">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>44197</v>
       </c>
@@ -6500,12 +6513,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44197.041666666664</v>
       </c>
@@ -6527,11 +6543,14 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44197.08333321759</v>
       </c>
@@ -6553,11 +6572,14 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44198.083333159724</v>
       </c>
@@ -6579,11 +6601,14 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44199.083333159724</v>
       </c>
@@ -6605,11 +6630,14 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44200.083333159724</v>
       </c>
@@ -6631,11 +6659,14 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44201.083333159724</v>
       </c>
@@ -6657,11 +6688,14 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44202.083333159724</v>
       </c>
@@ -6683,11 +6717,14 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44203.083333159724</v>
       </c>
@@ -6709,11 +6746,14 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44204.083333159724</v>
       </c>
@@ -6735,11 +6775,14 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44205.083333159724</v>
       </c>
@@ -6761,11 +6804,14 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44206.083333159724</v>
       </c>
@@ -6787,11 +6833,14 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44207.083333159724</v>
       </c>
@@ -6813,11 +6862,14 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44208.083333159724</v>
       </c>
@@ -6839,11 +6891,14 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44209.083333159724</v>
       </c>
@@ -6865,11 +6920,14 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44210.083333159724</v>
       </c>
@@ -6891,11 +6949,14 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44211.083333159724</v>
       </c>
@@ -6918,10 +6979,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44212.083333159724</v>
       </c>
@@ -6943,11 +7007,14 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44213.083333159724</v>
       </c>
@@ -6969,11 +7036,14 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44214.083333159724</v>
       </c>
@@ -6995,11 +7065,14 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44215.083333159724</v>
       </c>
@@ -7021,11 +7094,14 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44216.083333159724</v>
       </c>
@@ -7047,11 +7123,14 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44217.083333159724</v>
       </c>
@@ -7073,11 +7152,14 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44218.083333159724</v>
       </c>
@@ -7099,11 +7181,14 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44219.083333159724</v>
       </c>
@@ -7125,11 +7210,14 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44220.083333159724</v>
       </c>
@@ -7151,11 +7239,14 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44221.083333159724</v>
       </c>
@@ -7184,10 +7275,13 @@
         <v>113.01779999999999</v>
       </c>
       <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44222.083333159724</v>
       </c>
@@ -7215,11 +7309,14 @@
         <f t="shared" ref="G31:G54" si="5">136.44/3.6*0.994*3</f>
         <v>113.01779999999999</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44223.083333159724</v>
       </c>
@@ -7247,11 +7344,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44224.083333159724</v>
       </c>
@@ -7279,11 +7379,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44225.083333159724</v>
       </c>
@@ -7311,11 +7414,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44226.083333159724</v>
       </c>
@@ -7343,11 +7449,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44227.083333159724</v>
       </c>
@@ -7375,11 +7484,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44228.083333159724</v>
       </c>
@@ -7407,11 +7519,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44229.083333159724</v>
       </c>
@@ -7439,11 +7554,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44230.083333159724</v>
       </c>
@@ -7471,11 +7589,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44231.083333159724</v>
       </c>
@@ -7503,11 +7624,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44232.083333159724</v>
       </c>
@@ -7535,11 +7659,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44233.083333159724</v>
       </c>
@@ -7567,11 +7694,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44234.083333159724</v>
       </c>
@@ -7599,11 +7729,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>44235.083333159724</v>
       </c>
@@ -7632,10 +7765,13 @@
         <v>113.01779999999999</v>
       </c>
       <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44236.083333159724</v>
       </c>
@@ -7663,11 +7799,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44237.083333159724</v>
       </c>
@@ -7695,11 +7834,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44238.083333159724</v>
       </c>
@@ -7727,11 +7869,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44239.083333159724</v>
       </c>
@@ -7759,11 +7904,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44240.083333159724</v>
       </c>
@@ -7791,11 +7939,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44241.083333159724</v>
       </c>
@@ -7823,11 +7974,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44242.083333159724</v>
       </c>
@@ -7855,11 +8009,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44243.083333159724</v>
       </c>
@@ -7887,11 +8044,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44244.083333159724</v>
       </c>
@@ -7919,11 +8079,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44245.083333159724</v>
       </c>
@@ -7951,11 +8114,14 @@
         <f t="shared" si="5"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>44246.083333159724</v>
       </c>
@@ -7978,10 +8144,13 @@
         <v>0</v>
       </c>
       <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44247.083333159724</v>
       </c>
@@ -8003,11 +8172,14 @@
       <c r="G56" s="3">
         <v>0</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>44248.083333159724</v>
       </c>
@@ -8029,11 +8201,14 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>44249.083333159724</v>
       </c>
@@ -8055,11 +8230,14 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44250.083333159724</v>
       </c>
@@ -8081,11 +8259,14 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>44251.083333159724</v>
       </c>
@@ -8107,11 +8288,14 @@
       <c r="G60" s="3">
         <v>0</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>44252.083333159724</v>
       </c>
@@ -8133,11 +8317,14 @@
       <c r="G61" s="3">
         <v>0</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>44253.083333159724</v>
       </c>
@@ -8159,11 +8346,14 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>44254.083333159724</v>
       </c>
@@ -8185,11 +8375,14 @@
       <c r="G63" s="3">
         <v>0</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>44255.083333159724</v>
       </c>
@@ -8211,11 +8404,14 @@
       <c r="G64" s="3">
         <v>0</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="5">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>44256.083333159724</v>
       </c>
@@ -8237,11 +8433,14 @@
       <c r="G65" s="3">
         <v>0</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44257.083333159724</v>
       </c>
@@ -8263,11 +8462,14 @@
       <c r="G66" s="3">
         <v>0</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>44258.083333159724</v>
       </c>
@@ -8289,11 +8491,14 @@
       <c r="G67" s="3">
         <v>0</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="5">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>44259.083333159724</v>
       </c>
@@ -8315,11 +8520,14 @@
       <c r="G68" s="3">
         <v>0</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>44260.083333159724</v>
       </c>
@@ -8341,11 +8549,14 @@
       <c r="G69" s="3">
         <v>0</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>44261.083333159724</v>
       </c>
@@ -8367,11 +8578,14 @@
       <c r="G70" s="3">
         <v>0</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>44262.083333159724</v>
       </c>
@@ -8394,10 +8608,13 @@
         <v>1</v>
       </c>
       <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>44263.083333159724</v>
       </c>
@@ -8419,11 +8636,14 @@
       <c r="G72" s="3">
         <v>1</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="5">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>44264.083333159724</v>
       </c>
@@ -8445,11 +8665,14 @@
       <c r="G73" s="3">
         <v>1</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="5">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>44265.083333159724</v>
       </c>
@@ -8471,11 +8694,14 @@
       <c r="G74" s="3">
         <v>1</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="5">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>44266.083333159724</v>
       </c>
@@ -8497,11 +8723,14 @@
       <c r="G75" s="3">
         <v>1</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44267.083333159724</v>
       </c>
@@ -8523,11 +8752,14 @@
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="5">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44268.083333159724</v>
       </c>
@@ -8549,11 +8781,14 @@
       <c r="G77" s="3">
         <v>1</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="5">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44269.083333159724</v>
       </c>
@@ -8575,11 +8810,14 @@
       <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44270.083333159724</v>
       </c>
@@ -8601,11 +8839,14 @@
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="5">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44271.083333159724</v>
       </c>
@@ -8627,11 +8868,14 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="5">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>44272.083333159724</v>
       </c>
@@ -8660,19 +8904,22 @@
         <v>113.01779999999999</v>
       </c>
       <c r="H81" s="5">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44273.083333159724</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" ref="B82:B105" si="8">-SUM(D82:G82)-C82</f>
+        <f t="shared" ref="B82:B98" si="8">-SUM(D82:G82)-C82</f>
         <v>-241.14440000000005</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" ref="C82:C105" si="9">-126.36/3.6*0.994</f>
+        <f t="shared" ref="C82:C84" si="9">-126.36/3.6*0.994</f>
         <v>-34.889400000000002</v>
       </c>
       <c r="D82" s="3">
@@ -8684,18 +8931,21 @@
         <v>12.5244</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" ref="F82:F105" si="12">159.12/3.6*0.994*2</f>
+        <f t="shared" ref="F82:F98" si="12">159.12/3.6*0.994*2</f>
         <v>87.869600000000005</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" ref="G82:G105" si="13">136.44/3.6*0.994*3</f>
+        <f t="shared" ref="G82:G98" si="13">136.44/3.6*0.994*3</f>
         <v>113.01779999999999</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="5">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44274.083333159724</v>
       </c>
@@ -8723,11 +8973,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="5">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>44275.083333159724</v>
       </c>
@@ -8755,11 +9008,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="5">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>44276.083333159724</v>
       </c>
@@ -8787,10 +9043,13 @@
         <v>113.01779999999999</v>
       </c>
       <c r="H85" s="5">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>44277.083333159724</v>
       </c>
@@ -8817,11 +9076,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="5">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>44278.083333159724</v>
       </c>
@@ -8848,11 +9110,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="5">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>44279.083333159724</v>
       </c>
@@ -8879,11 +9144,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="5">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>44280.083333159724</v>
       </c>
@@ -8910,11 +9178,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="5">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>44281.083333159724</v>
       </c>
@@ -8941,11 +9212,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>44282.083333159724</v>
       </c>
@@ -8972,11 +9246,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="5">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>44283.083333159724</v>
       </c>
@@ -9003,11 +9280,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="5">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>44284.083333159724</v>
       </c>
@@ -9034,11 +9314,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="5">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>44285.083333159724</v>
       </c>
@@ -9065,11 +9348,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="5">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>44286.083333159724</v>
       </c>
@@ -9097,10 +9383,13 @@
         <v>113.01779999999999</v>
       </c>
       <c r="H95" s="5">
+        <v>0</v>
+      </c>
+      <c r="I95" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>44287.083333159724</v>
       </c>
@@ -9112,11 +9401,11 @@
         <v>-50</v>
       </c>
       <c r="D96" s="3">
-        <f t="shared" ref="D96:D105" si="14">113.4/3.6*0.994</f>
+        <f t="shared" ref="D96:D98" si="14">113.4/3.6*0.994</f>
         <v>31.311</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" ref="E96:E105" si="15">90.72/3.6*0.994</f>
+        <f t="shared" ref="E96:E98" si="15">90.72/3.6*0.994</f>
         <v>25.0488</v>
       </c>
       <c r="F96" s="3">
@@ -9127,11 +9416,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="5">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>44288.083333159724</v>
       </c>
@@ -9158,11 +9450,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="5">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>44289.083333159724</v>
       </c>
@@ -9189,11 +9484,14 @@
         <f t="shared" si="13"/>
         <v>113.01779999999999</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="5">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>44290.083333159724</v>
       </c>
@@ -9221,10 +9519,13 @@
         <v>37.672599999999996</v>
       </c>
       <c r="H99" s="5">
+        <v>0</v>
+      </c>
+      <c r="I99" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>44291.083333159724</v>
       </c>
@@ -9251,11 +9552,14 @@
         <f t="shared" ref="G100:G106" si="20">136.44/3.6*0.994</f>
         <v>37.672599999999996</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="5">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>44292.083333159724</v>
       </c>
@@ -9282,11 +9586,14 @@
         <f t="shared" si="20"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="5">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>44293.083333159724</v>
       </c>
@@ -9313,11 +9620,14 @@
         <f t="shared" si="20"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="5">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>44294.083333159724</v>
       </c>
@@ -9326,7 +9636,7 @@
         <v>-103.0778</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" ref="C100:C106" si="21">-126.36/3.6*0.994</f>
+        <f t="shared" ref="C103:C106" si="21">-126.36/3.6*0.994</f>
         <v>-34.889400000000002</v>
       </c>
       <c r="D103" s="5">
@@ -9346,10 +9656,13 @@
         <v>37.672599999999996</v>
       </c>
       <c r="H103" s="5">
+        <v>0</v>
+      </c>
+      <c r="I103" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>44295.083333159724</v>
       </c>
@@ -9377,11 +9690,14 @@
         <f t="shared" si="20"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="5">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>44296.083333333336</v>
       </c>
@@ -9409,11 +9725,14 @@
         <f t="shared" si="20"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="5">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>44297.083333159724</v>
       </c>
@@ -9441,11 +9760,14 @@
         <f t="shared" si="20"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="5">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>44298.083333159724</v>
       </c>
@@ -9468,10 +9790,13 @@
         <v>1</v>
       </c>
       <c r="H107" s="5">
+        <v>0</v>
+      </c>
+      <c r="I107" s="5">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>44299.083333159724</v>
       </c>
@@ -9493,11 +9818,14 @@
       <c r="G108" s="3">
         <v>1</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="5">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>44300.083333159724</v>
       </c>
@@ -9519,11 +9847,14 @@
       <c r="G109" s="3">
         <v>1</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="5">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>44301.083333159724</v>
       </c>
@@ -9546,10 +9877,13 @@
         <v>0</v>
       </c>
       <c r="H110" s="5">
+        <v>0</v>
+      </c>
+      <c r="I110" s="5">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>44302.083333159724</v>
       </c>
@@ -9571,11 +9905,14 @@
       <c r="G111" s="3">
         <v>0</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="5">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>44303.083333159724</v>
       </c>
@@ -9597,11 +9934,14 @@
       <c r="G112" s="3">
         <v>0</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="5">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>44304.083333159724</v>
       </c>
@@ -9623,11 +9963,14 @@
       <c r="G113" s="3">
         <v>0</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="5">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>44305.083333159724</v>
       </c>
@@ -9649,11 +9992,14 @@
       <c r="G114" s="3">
         <v>0</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="5">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>44306.083333159724</v>
       </c>
@@ -9682,10 +10028,13 @@
         <v>37.672599999999996</v>
       </c>
       <c r="H115" s="5">
+        <v>0</v>
+      </c>
+      <c r="I115" s="5">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>44307.083333159724</v>
       </c>
@@ -9713,11 +10062,14 @@
         <f t="shared" si="27"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="5">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>44308.083333159724</v>
       </c>
@@ -9745,11 +10097,14 @@
         <f t="shared" si="27"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="5">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>44309.083333159724</v>
       </c>
@@ -9777,11 +10132,14 @@
         <f t="shared" si="27"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="5">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>44310.083333159724</v>
       </c>
@@ -9809,11 +10167,14 @@
         <f t="shared" si="27"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="5">
+        <v>0</v>
+      </c>
+      <c r="I119" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>44311.083333159724</v>
       </c>
@@ -9841,11 +10202,14 @@
         <f t="shared" si="27"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="5">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>44312.083333159724</v>
       </c>
@@ -9873,11 +10237,14 @@
         <f t="shared" si="27"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="5">
+        <v>0</v>
+      </c>
+      <c r="I121" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>44313.083333159724</v>
       </c>
@@ -9900,10 +10267,13 @@
         <v>1</v>
       </c>
       <c r="H122" s="5">
+        <v>0</v>
+      </c>
+      <c r="I122" s="5">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>44314.083333159724</v>
       </c>
@@ -9925,11 +10295,14 @@
       <c r="G123" s="3">
         <v>1</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="5">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>44315.083333159724</v>
       </c>
@@ -9951,11 +10324,14 @@
       <c r="G124" s="3">
         <v>1</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="5">
+        <v>0</v>
+      </c>
+      <c r="I124" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44316.083333159724</v>
       </c>
@@ -9978,10 +10354,13 @@
         <v>0</v>
       </c>
       <c r="H125" s="5">
+        <v>0</v>
+      </c>
+      <c r="I125" s="5">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>44317.083333159724</v>
       </c>
@@ -10003,11 +10382,14 @@
       <c r="G126" s="3">
         <v>0</v>
       </c>
-      <c r="H126" s="3">
+      <c r="H126" s="5">
+        <v>0</v>
+      </c>
+      <c r="I126" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>44318.083333159724</v>
       </c>
@@ -10029,11 +10411,14 @@
       <c r="G127" s="3">
         <v>0</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="5">
+        <v>0</v>
+      </c>
+      <c r="I127" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>44319.083333159724</v>
       </c>
@@ -10055,11 +10440,14 @@
       <c r="G128" s="3">
         <v>0</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="5">
+        <v>0</v>
+      </c>
+      <c r="I128" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>44320.083333159724</v>
       </c>
@@ -10081,11 +10469,14 @@
       <c r="G129" s="3">
         <v>0</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="5">
+        <v>0</v>
+      </c>
+      <c r="I129" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>44321.083333159724</v>
       </c>
@@ -10114,10 +10505,13 @@
         <v>37.672599999999996</v>
       </c>
       <c r="H130" s="5">
+        <v>0</v>
+      </c>
+      <c r="I130" s="5">
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>44322.083333159724</v>
       </c>
@@ -10145,11 +10539,14 @@
         <f t="shared" si="33"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="5">
+        <v>0</v>
+      </c>
+      <c r="I131" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>44323.083333159724</v>
       </c>
@@ -10177,11 +10574,14 @@
         <f t="shared" si="33"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="5">
+        <v>0</v>
+      </c>
+      <c r="I132" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>44324.083333159724</v>
       </c>
@@ -10209,11 +10609,14 @@
         <f t="shared" si="33"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="5">
+        <v>0</v>
+      </c>
+      <c r="I133" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>44325.083333159724</v>
       </c>
@@ -10241,11 +10644,14 @@
         <f t="shared" si="33"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="5">
+        <v>0</v>
+      </c>
+      <c r="I134" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>44326.083333159724</v>
       </c>
@@ -10273,11 +10679,14 @@
         <f t="shared" si="33"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="5">
+        <v>0</v>
+      </c>
+      <c r="I135" s="3">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44327.083333159724</v>
       </c>
@@ -10305,11 +10714,14 @@
         <f t="shared" si="33"/>
         <v>37.672599999999996</v>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="5">
+        <v>0</v>
+      </c>
+      <c r="I136" s="3">
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>44328.083333159724</v>
       </c>
@@ -10332,10 +10744,13 @@
         <v>0</v>
       </c>
       <c r="H137" s="5">
+        <v>0</v>
+      </c>
+      <c r="I137" s="5">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44329.083333159724</v>
       </c>
@@ -10357,26 +10772,29 @@
       <c r="G138" s="3">
         <v>0</v>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="5">
+        <v>0</v>
+      </c>
+      <c r="I138" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">

--- a/eureca_dhcs/test/input_tests/conditions_hydro_test_stability.xlsx
+++ b/eureca_dhcs/test/input_tests/conditions_hydro_test_stability.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30888863-243A-42B7-B22A-DC3A11706140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742BE473-4D6D-4B52-97CA-3A63A202C72C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26208" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29952" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hydraulic" sheetId="1" r:id="rId1"/>
@@ -113,6010 +113,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10087343127146638"/>
-          <c:y val="0.17658785350023185"/>
-          <c:w val="0.86337317972925476"/>
-          <c:h val="0.67122947366117114"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Hydraulic!$A$3:$A$138</c:f>
-              <c:strCache>
-                <c:ptCount val="136"/>
-                <c:pt idx="0">
-                  <c:v>Idx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>01/01/2021 00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01/01/2021 01:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>01/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>02/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>03/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>04/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>06/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>07/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>08/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>09/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>01/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>02/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>03/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>04/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>05/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>06/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>07/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>08/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>09/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>21/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>23/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>24/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>25/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>26/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>27/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>01/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>02/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>03/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>04/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>05/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>06/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>07/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>08/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>09/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>15/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>16/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>19/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>21/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>22/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>24/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>25/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>26/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>27/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>28/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>29/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>30/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>31/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>01/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>02/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>03/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>04/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>05/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>06/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>07/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>08/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>09/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>11/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>13/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>16/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>17/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>18/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>19/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>21/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>22/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>23/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>24/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>25/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>26/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>27/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>28/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>29/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>01/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>02/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>03/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>04/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>05/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>06/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>07/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>08/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>09/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>10/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>11/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13/05/2021 02:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hydraulic!$B$3:$B$138</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="136"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-222.35780000000003</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-241.14440000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-226.03380000000004</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-207.24720000000002</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-207.24720000000002</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-207.24720000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-207.24720000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-87.967199999999991</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-87.967199999999991</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-87.967199999999991</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-87.967199999999991</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-103.0778</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D01-483D-BCDC-6CF0FA6295A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Hydraulic!$A$3:$A$138</c:f>
-              <c:strCache>
-                <c:ptCount val="136"/>
-                <c:pt idx="0">
-                  <c:v>Idx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>01/01/2021 00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01/01/2021 01:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>01/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>02/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>03/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>04/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>06/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>07/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>08/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>09/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>01/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>02/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>03/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>04/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>05/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>06/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>07/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>08/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>09/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>21/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>23/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>24/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>25/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>26/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>27/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>01/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>02/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>03/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>04/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>05/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>06/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>07/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>08/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>09/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>15/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>16/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>19/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>21/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>22/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>24/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>25/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>26/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>27/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>28/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>29/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>30/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>31/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>01/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>02/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>03/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>04/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>05/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>06/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>07/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>08/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>09/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>11/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>13/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>16/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>17/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>18/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>19/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>21/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>22/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>23/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>24/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>25/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>26/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>27/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>28/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>29/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>01/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>02/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>03/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>04/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>05/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>06/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>07/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>08/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>09/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>10/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>11/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13/05/2021 02:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hydraulic!$C$3:$C$138</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="136"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-34.889400000000002</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D01-483D-BCDC-6CF0FA6295A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Hydraulic!$A$3:$A$138</c:f>
-              <c:strCache>
-                <c:ptCount val="136"/>
-                <c:pt idx="0">
-                  <c:v>Idx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>01/01/2021 00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01/01/2021 01:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>01/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>02/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>03/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>04/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>06/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>07/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>08/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>09/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>01/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>02/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>03/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>04/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>05/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>06/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>07/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>08/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>09/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>21/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>23/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>24/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>25/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>26/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>27/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>01/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>02/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>03/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>04/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>05/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>06/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>07/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>08/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>09/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>15/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>16/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>19/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>21/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>22/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>24/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>25/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>26/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>27/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>28/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>29/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>30/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>31/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>01/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>02/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>03/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>04/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>05/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>06/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>07/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>08/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>09/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>11/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>13/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>16/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>17/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>18/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>19/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>21/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>22/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>23/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>24/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>25/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>26/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>27/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>28/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>29/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>01/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>02/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>03/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>04/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>05/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>06/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>07/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>08/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>09/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>10/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>11/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13/05/2021 02:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hydraulic!$D$3:$D$138</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="136"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>62.622</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>31.311</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1D01-483D-BCDC-6CF0FA6295A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Hydraulic!$A$3:$A$138</c:f>
-              <c:strCache>
-                <c:ptCount val="136"/>
-                <c:pt idx="0">
-                  <c:v>Idx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>01/01/2021 00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01/01/2021 01:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>01/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>02/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>03/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>04/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>06/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>07/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>08/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>09/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>01/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>02/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>03/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>04/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>05/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>06/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>07/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>08/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>09/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>21/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>23/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>24/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>25/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>26/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>27/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>01/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>02/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>03/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>04/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>05/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>06/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>07/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>08/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>09/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>15/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>16/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>19/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>21/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>22/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>24/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>25/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>26/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>27/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>28/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>29/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>30/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>31/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>01/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>02/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>03/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>04/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>05/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>06/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>07/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>08/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>09/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>11/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>13/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>16/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>17/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>18/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>19/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>21/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>22/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>23/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>24/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>25/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>26/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>27/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>28/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>29/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>01/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>02/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>03/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>04/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>05/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>06/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>07/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>08/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>09/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>10/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>11/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13/05/2021 02:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hydraulic!$E$3:$E$138</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="136"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>12.5244</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>25.0488</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1D01-483D-BCDC-6CF0FA6295A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Hydraulic!$A$3:$A$138</c:f>
-              <c:strCache>
-                <c:ptCount val="136"/>
-                <c:pt idx="0">
-                  <c:v>Idx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>01/01/2021 00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01/01/2021 01:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>01/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>02/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>03/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>04/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>06/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>07/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>08/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>09/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>01/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>02/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>03/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>04/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>05/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>06/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>07/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>08/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>09/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>21/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>23/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>24/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>25/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>26/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>27/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>01/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>02/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>03/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>04/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>05/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>06/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>07/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>08/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>09/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>15/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>16/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>19/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>21/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>22/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>24/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>25/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>26/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>27/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>28/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>29/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>30/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>31/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>01/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>02/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>03/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>04/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>05/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>06/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>07/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>08/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>09/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>11/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>13/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>16/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>17/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>18/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>19/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>21/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>22/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>23/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>24/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>25/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>26/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>27/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>28/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>29/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>01/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>02/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>03/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>04/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>05/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>06/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>07/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>08/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>09/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>10/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>11/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13/05/2021 02:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hydraulic!$F$3:$F$138</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="136"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>87.869600000000005</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>43.934800000000003</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1D01-483D-BCDC-6CF0FA6295A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Hydraulic!$A$3:$A$138</c:f>
-              <c:strCache>
-                <c:ptCount val="136"/>
-                <c:pt idx="0">
-                  <c:v>Idx</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>01/01/2021 00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>01/01/2021 01:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>01/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>02/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>03/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>04/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>06/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>07/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>08/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>09/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31/01/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>01/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>02/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>03/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>04/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>05/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>06/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>07/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>08/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>09/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>15/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>20/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>21/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>22/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>23/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>24/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>25/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>26/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>27/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28/02/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>01/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>02/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>03/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>04/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>05/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>06/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>07/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>08/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>09/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>15/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>16/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>19/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>21/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>22/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>24/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>25/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>26/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>27/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>28/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>29/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>30/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>31/03/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>01/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>02/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>03/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>04/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>05/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>06/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>07/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>08/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>09/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>10/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>11/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>13/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>15/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>16/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>17/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>18/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>19/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>21/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>22/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>23/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>24/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>25/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>26/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>27/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>28/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>29/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>30/04/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>01/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>02/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>03/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>04/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>05/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>06/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>07/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>08/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>09/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>10/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>11/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>12/05/2021 02:00</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>13/05/2021 02:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hydraulic!$G$3:$G$138</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="136"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>113.01779999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>37.672599999999996</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1D01-483D-BCDC-6CF0FA6295A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1968310719"/>
-        <c:axId val="1968362079"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1968310719"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1968362079"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1968362079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1968310719"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>649604</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>86676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B77006-FB2A-42DF-8F51-BDC30FCFC9F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6385,7 +381,7 @@
   <dimension ref="A1:J8763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6481,25 +477,25 @@
       <c r="A4" s="4">
         <v>44197</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3"/>
@@ -8668,11 +2664,11 @@
         <v>44273.083333159724</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" ref="B82:B105" si="8">-SUM(D82:G82)-C82</f>
+        <f t="shared" ref="B82:B98" si="8">-SUM(D82:G82)-C82</f>
         <v>-241.14440000000005</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" ref="C82:C105" si="9">-126.36/3.6*0.994</f>
+        <f t="shared" ref="C82:C84" si="9">-126.36/3.6*0.994</f>
         <v>-34.889400000000002</v>
       </c>
       <c r="D82" s="3">
@@ -8684,11 +2680,11 @@
         <v>12.5244</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" ref="F82:F105" si="12">159.12/3.6*0.994*2</f>
+        <f t="shared" ref="F82:F98" si="12">159.12/3.6*0.994*2</f>
         <v>87.869600000000005</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" ref="G82:G105" si="13">136.44/3.6*0.994*3</f>
+        <f t="shared" ref="G82:G98" si="13">136.44/3.6*0.994*3</f>
         <v>113.01779999999999</v>
       </c>
       <c r="H82" s="3">
@@ -9112,11 +3108,11 @@
         <v>-50</v>
       </c>
       <c r="D96" s="3">
-        <f t="shared" ref="D96:D105" si="14">113.4/3.6*0.994</f>
+        <f t="shared" ref="D96:D98" si="14">113.4/3.6*0.994</f>
         <v>31.311</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" ref="E96:E105" si="15">90.72/3.6*0.994</f>
+        <f t="shared" ref="E96:E98" si="15">90.72/3.6*0.994</f>
         <v>25.0488</v>
       </c>
       <c r="F96" s="3">
@@ -9326,7 +3322,7 @@
         <v>-103.0778</v>
       </c>
       <c r="C103" s="5">
-        <f t="shared" ref="C100:C106" si="21">-126.36/3.6*0.994</f>
+        <f t="shared" ref="C103:C106" si="21">-126.36/3.6*0.994</f>
         <v>-34.889400000000002</v>
       </c>
       <c r="D103" s="5">
@@ -36239,7 +30235,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
